--- a/app/data/absenteeism_data_4.xlsx
+++ b/app/data/absenteeism_data_4.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57790</v>
+        <v>26571</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diego Alves</t>
+          <t>Ana Freitas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>5996.01</v>
+        <v>9126.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>78881</v>
+        <v>24627</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leandro da Paz</t>
+          <t>Agatha Carvalho</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45095</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>2913.81</v>
+        <v>8311.030000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42502</v>
+        <v>97429</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Guilherme da Paz</t>
+          <t>Isabelly Moraes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>10379.66</v>
+        <v>4278.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32307</v>
+        <v>98068</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emilly Moraes</t>
+          <t>Sr. Otávio Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45085</v>
       </c>
       <c r="G5" t="n">
-        <v>7024.14</v>
+        <v>2887.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25069</v>
+        <v>33324</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lívia Azevedo</t>
+          <t>Benício Castro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>4152.34</v>
+        <v>7499.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>62504</v>
+        <v>90954</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. João Martins</t>
+          <t>Leandro Rezende</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>8190.74</v>
+        <v>2988.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15638</v>
+        <v>74078</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Esther das Neves</t>
+          <t>Benício Cavalcanti</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>9880</v>
+        <v>7410.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>87701</v>
+        <v>34897</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Beatriz Castro</t>
+          <t>Luigi Pereira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45095</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>4826.52</v>
+        <v>10906.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>75577</v>
+        <v>35087</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sophie Pereira</t>
+          <t>Miguel Araújo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45086</v>
       </c>
       <c r="G10" t="n">
-        <v>9314.43</v>
+        <v>3905.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>48193</v>
+        <v>13959</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Maria Cecília Pires</t>
+          <t>Danilo Cardoso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45101</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>6760.15</v>
+        <v>11295.62</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_4.xlsx
+++ b/app/data/absenteeism_data_4.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>76346</v>
+        <v>2708</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Julia Gonçalves</t>
+          <t>Sr. Cauã da Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45096</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>12162.04</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34744</v>
+        <v>3352</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Isaac Silva</t>
+          <t>Mariane Nunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45104</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>7207.24</v>
+        <v>10253.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9939</v>
+        <v>52062</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maitê Caldeira</t>
+          <t>Augusto Gonçalves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,220 +548,220 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>8288.16</v>
+        <v>7820.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>54854</v>
+        <v>17358</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dra. Laura Freitas</t>
+          <t>Sabrina Viana</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45096</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>9730.23</v>
+        <v>8529.709999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20541</v>
+        <v>74514</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bárbara Nascimento</t>
+          <t>Esther Caldeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>6215.81</v>
+        <v>5724.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61073</v>
+        <v>15636</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cauê da Mota</t>
+          <t>Thomas Silveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>6417.14</v>
+        <v>10550.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25578</v>
+        <v>99348</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Catarina Nascimento</t>
+          <t>Gabrielly Souza</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>8754.52</v>
+        <v>3537.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>58993</v>
+        <v>10193</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cauê Oliveira</t>
+          <t>Kaique Azevedo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45087</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>3547.58</v>
+        <v>3847.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>27125</v>
+        <v>67411</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alice Peixoto</t>
+          <t>Dr. Luiz Felipe Dias</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>3811.05</v>
+        <v>11238.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>72885</v>
+        <v>18968</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Lucas Melo</t>
+          <t>Sr. Vitor Gabriel Moreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>10386.4</v>
+        <v>4586.65</v>
       </c>
     </row>
   </sheetData>
